--- a/assets/BOs/Susanoo.xlsx
+++ b/assets/BOs/Susanoo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75593EC-11D0-4A02-BE44-EE6B91305746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4110" yWindow="4320" windowWidth="43200" windowHeight="23235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Susanoo Inari Okami One Base - By BqvH</t>
+  </si>
+  <si>
+    <t>Archaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food / Wood / Gold / Favor </t>
+  </si>
+  <si>
+    <t>(Your numbers will be lower while buildings are going up or if Mikos are gathering relics)</t>
+  </si>
+  <si>
+    <t>When buildings Shrines remember later you will have a Shrine of the Hunt that can protect nearby resources</t>
+  </si>
+  <si>
+    <t>3/0/0/0</t>
+  </si>
+  <si>
+    <t>First 3 villagers go to hunt (Build Watermill if needed)</t>
+  </si>
+  <si>
+    <t>Miko builds a Shrine</t>
+  </si>
+  <si>
+    <t>3/0/1/1</t>
+  </si>
+  <si>
+    <t>Next 1 villager goes to gold (build Mining Camp)</t>
+  </si>
+  <si>
+    <t>3/2/1/1</t>
+  </si>
+  <si>
+    <t>Next 2 villagers go to wood (build Watermill)</t>
+  </si>
+  <si>
+    <t>Next 4 villagers go to food</t>
+  </si>
+  <si>
+    <t>7/2/1/1</t>
+  </si>
+  <si>
+    <t>Start training 2 Mikos and build 2 Shrines when they are done
+At 150 gold build a Temple with a Villager or Miko
+Build a House with any Villager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/2/1/3 </t>
+  </si>
+  <si>
+    <t>Next 2 villagers go to food</t>
+  </si>
+  <si>
+    <t>Advance - Inari Okami (3.25)</t>
+  </si>
+  <si>
+    <t>3/5/4/3</t>
+  </si>
+  <si>
+    <t>Transfer 3 villagers from food to gold
+Transfer 3 villagers from food to wood</t>
+  </si>
+  <si>
+    <t>Research Sacred Custodians from a Shrine and gather nearby Relics with Mikos
+Research Crushing Waves from the Temple
+Research Husbandry from a Watermill</t>
+  </si>
+  <si>
+    <t>Classical (4.25)</t>
+  </si>
+  <si>
+    <t>Your next priorities are:
+Cast Shrine of the Hunt preferably on a Shrine that can protect your forward resources (food or gold)
+Pre- Queue Saltwater Spring from the Watermill
+Build 2 Military buildings (I prefer 1 Guard House + 1 more Dojo/Stable/Guard House) 
+Get these other upgrades when you can (Pickaxe and Handaxe) and if you're using archers get (Hunter's Strength and Kumiki)
+Consider Armory upgrades once you reach ~100 pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After that you can go many routes:
+Fast Heroic to Raijin and harrass with Raiju.
+Build more Military buildings and fight in Classical. 
+Take another TC and economic boom.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember:
+in Classical, fight early and often, and use God Powers to increase Bushido and get those favor chunks. Once you pass Bushido tier 3 you may get favor starved so start spending favor efficiently in late Heroic. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +129,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +195,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +488,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/BOs/Susanoo.xlsx
+++ b/assets/BOs/Susanoo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75593EC-11D0-4A02-BE44-EE6B91305746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92410367-96C5-4F7C-B568-309251B62D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4320" windowWidth="43200" windowHeight="23235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Susanoo Inari Okami One Base - By BqvH</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>Next 2 villagers go to food</t>
-  </si>
-  <si>
-    <t>Advance - Inari Okami (3.25)</t>
   </si>
   <si>
     <t>3/5/4/3</t>
@@ -116,12 +110,18 @@
     <t xml:space="preserve">Remember:
 in Classical, fight early and often, and use God Powers to increase Bushido and get those favor chunks. Once you pass Bushido tier 3 you may get favor starved so start spending favor efficiently in late Heroic. </t>
   </si>
+  <si>
+    <t>Susanoo Minakatatomi One Base - By BqvH</t>
+  </si>
+  <si>
+    <t>Advance - Minakatatomi (3.25)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -192,26 +198,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5AFB3D81-8D8C-42A8-B19A-FE925BB578E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,7 +501,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,127 +512,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
